--- a/Pipeline_2-Vulnerability/Weighting and Aggregation/Outputs/Data/Index_Data_Select.xlsx
+++ b/Pipeline_2-Vulnerability/Weighting and Aggregation/Outputs/Data/Index_Data_Select.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I2374"/>
+  <dimension ref="A1:I2371"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -9010,6 +9010,9 @@
       <c r="G262">
         <v>0.8063625704131906</v>
       </c>
+      <c r="H262">
+        <v>0.9805787102787475</v>
+      </c>
       <c r="I262">
         <v>0.5825446851570284</v>
       </c>
@@ -9040,6 +9043,9 @@
       <c r="G263">
         <v>0.8052839369525959</v>
       </c>
+      <c r="H263">
+        <v>0.9805787102787475</v>
+      </c>
       <c r="I263">
         <v>0.5825446851570284</v>
       </c>
@@ -9070,6 +9076,9 @@
       <c r="G264">
         <v>0.8052857208360462</v>
       </c>
+      <c r="H264">
+        <v>0.9805787102787475</v>
+      </c>
       <c r="I264">
         <v>0.5825446851570284</v>
       </c>
@@ -9100,6 +9109,9 @@
       <c r="G265">
         <v>0.8052857208360462</v>
       </c>
+      <c r="H265">
+        <v>0.9805787102787475</v>
+      </c>
       <c r="I265">
         <v>0.5825446851570284</v>
       </c>
@@ -9130,6 +9142,9 @@
       <c r="G266">
         <v>0.805090268843236</v>
       </c>
+      <c r="H266">
+        <v>0.9805787102787475</v>
+      </c>
       <c r="I266">
         <v>0.5825446851570284</v>
       </c>
@@ -9160,6 +9175,9 @@
       <c r="G267">
         <v>0.8051834824564745</v>
       </c>
+      <c r="H267">
+        <v>0.9805787102787475</v>
+      </c>
       <c r="I267">
         <v>0.5825446851570284</v>
       </c>
@@ -9190,6 +9208,9 @@
       <c r="G268">
         <v>0.805285333035296</v>
       </c>
+      <c r="H268">
+        <v>0.9805787102787475</v>
+      </c>
       <c r="I268">
         <v>0.5825446851570284</v>
       </c>
@@ -9220,6 +9241,9 @@
       <c r="G269">
         <v>0.8052854458500599</v>
       </c>
+      <c r="H269">
+        <v>0.9805787102787475</v>
+      </c>
       <c r="I269">
         <v>0.5825446851570284</v>
       </c>
@@ -9250,6 +9274,9 @@
       <c r="G270">
         <v>0.8052788532373082</v>
       </c>
+      <c r="H270">
+        <v>0.9805787102787475</v>
+      </c>
       <c r="I270">
         <v>0.5825446851570284</v>
       </c>
@@ -9280,6 +9307,9 @@
       <c r="G271">
         <v>0.7971614032356099</v>
       </c>
+      <c r="H271">
+        <v>0.9805787102787475</v>
+      </c>
       <c r="I271">
         <v>0.5825446851570284</v>
       </c>
@@ -76603,6 +76633,9 @@
       <c r="G2312">
         <v>0.6717219950505047</v>
       </c>
+      <c r="H2312">
+        <v>0.9212713362653673</v>
+      </c>
       <c r="I2312">
         <v>0.5628997438666029</v>
       </c>
@@ -76633,6 +76666,9 @@
       <c r="G2313">
         <v>0.4993544487508038</v>
       </c>
+      <c r="H2313">
+        <v>0.9241790445618921</v>
+      </c>
       <c r="I2313">
         <v>0.4499372360922322</v>
       </c>
@@ -76663,6 +76699,9 @@
       <c r="G2314">
         <v>0.6732752505317631</v>
       </c>
+      <c r="H2314">
+        <v>0.9212713362653673</v>
+      </c>
       <c r="I2314">
         <v>0.5628997438666029</v>
       </c>
@@ -76693,6 +76732,9 @@
       <c r="G2315">
         <v>0.5011506824209827</v>
       </c>
+      <c r="H2315">
+        <v>0.9241790445618921</v>
+      </c>
       <c r="I2315">
         <v>0.4499372360922322</v>
       </c>
@@ -76723,6 +76765,9 @@
       <c r="G2316">
         <v>0.6732770626189045</v>
       </c>
+      <c r="H2316">
+        <v>0.9212713362653673</v>
+      </c>
       <c r="I2316">
         <v>0.5628997438666029</v>
       </c>
@@ -76753,6 +76798,9 @@
       <c r="G2317">
         <v>0.501152494508124</v>
       </c>
+      <c r="H2317">
+        <v>0.9241790445618921</v>
+      </c>
       <c r="I2317">
         <v>0.4499372360922322</v>
       </c>
@@ -76783,6 +76831,9 @@
       <c r="G2318">
         <v>0.6732744749302629</v>
       </c>
+      <c r="H2318">
+        <v>0.9212713362653673</v>
+      </c>
       <c r="I2318">
         <v>0.5628997438666029</v>
       </c>
@@ -76813,6 +76864,9 @@
       <c r="G2319">
         <v>0.5011499068194825</v>
       </c>
+      <c r="H2319">
+        <v>0.9241790445618921</v>
+      </c>
       <c r="I2319">
         <v>0.4499372360922322</v>
       </c>
@@ -76843,6 +76897,9 @@
       <c r="G2320">
         <v>0.6731618152868977</v>
       </c>
+      <c r="H2320">
+        <v>0.9212713362653673</v>
+      </c>
       <c r="I2320">
         <v>0.5628997438666029</v>
       </c>
@@ -76873,6 +76930,9 @@
       <c r="G2321">
         <v>0.5010372471761172</v>
       </c>
+      <c r="H2321">
+        <v>0.9241790445618921</v>
+      </c>
       <c r="I2321">
         <v>0.4499372360922322</v>
       </c>
@@ -76903,6 +76963,9 @@
       <c r="G2322">
         <v>0.6714104929976028</v>
       </c>
+      <c r="H2322">
+        <v>0.9212713362653673</v>
+      </c>
       <c r="I2322">
         <v>0.5628997438666029</v>
       </c>
@@ -76933,6 +76996,9 @@
       <c r="G2323">
         <v>0.4992859248868224</v>
       </c>
+      <c r="H2323">
+        <v>0.9241790445618921</v>
+      </c>
       <c r="I2323">
         <v>0.4499372360922322</v>
       </c>
@@ -76963,6 +77029,9 @@
       <c r="G2324">
         <v>0.6732876178502299</v>
       </c>
+      <c r="H2324">
+        <v>0.9212713362653673</v>
+      </c>
       <c r="I2324">
         <v>0.5628997438666029</v>
       </c>
@@ -76993,6 +77062,9 @@
       <c r="G2325">
         <v>0.5011630497394494</v>
       </c>
+      <c r="H2325">
+        <v>0.9241790445618921</v>
+      </c>
       <c r="I2325">
         <v>0.4499372360922322</v>
       </c>
@@ -77023,6 +77095,9 @@
       <c r="G2326">
         <v>0.673260570510641</v>
       </c>
+      <c r="H2326">
+        <v>0.9212713362653673</v>
+      </c>
       <c r="I2326">
         <v>0.5628997438666029</v>
       </c>
@@ -77053,6 +77128,9 @@
       <c r="G2327">
         <v>0.5011360023998607</v>
       </c>
+      <c r="H2327">
+        <v>0.9241790445618921</v>
+      </c>
       <c r="I2327">
         <v>0.4499372360922322</v>
       </c>
@@ -77083,6 +77161,9 @@
       <c r="G2328">
         <v>0.6725244400758796</v>
       </c>
+      <c r="H2328">
+        <v>0.9212713362653673</v>
+      </c>
       <c r="I2328">
         <v>0.5628997438666029</v>
       </c>
@@ -77113,6 +77194,9 @@
       <c r="G2329">
         <v>0.5003998719650992</v>
       </c>
+      <c r="H2329">
+        <v>0.9241790445618921</v>
+      </c>
       <c r="I2329">
         <v>0.4499372360922322</v>
       </c>
@@ -77143,6 +77227,9 @@
       <c r="G2330">
         <v>0.6721489149822513</v>
       </c>
+      <c r="H2330">
+        <v>0.9212713362653673</v>
+      </c>
       <c r="I2330">
         <v>0.5628997438666029</v>
       </c>
@@ -77173,6 +77260,9 @@
       <c r="G2331">
         <v>0.500024346871471</v>
       </c>
+      <c r="H2331">
+        <v>0.9241790445618921</v>
+      </c>
       <c r="I2331">
         <v>0.4499372360922322</v>
       </c>
@@ -78495,36 +78585,6 @@
       </c>
       <c r="I2371">
         <v>0.7016890457657242</v>
-      </c>
-    </row>
-    <row r="2372">
-      <c r="A2372" t="inlineStr">
-        <is>
-          <t>CY00</t>
-        </is>
-      </c>
-      <c r="H2372">
-        <v>0.9805787102787475</v>
-      </c>
-    </row>
-    <row r="2373">
-      <c r="A2373" t="inlineStr">
-        <is>
-          <t>SI03</t>
-        </is>
-      </c>
-      <c r="H2373">
-        <v>0.9212713362653673</v>
-      </c>
-    </row>
-    <row r="2374">
-      <c r="A2374" t="inlineStr">
-        <is>
-          <t>SI04</t>
-        </is>
-      </c>
-      <c r="H2374">
-        <v>0.9241790445618921</v>
       </c>
     </row>
   </sheetData>
